--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.797865407244611</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H2">
-        <v>0.797865407244611</v>
+        <v>0.233212</v>
       </c>
       <c r="I2">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J2">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.618369734949498</v>
+        <v>1.051123666666667</v>
       </c>
       <c r="N2">
-        <v>0.618369734949498</v>
+        <v>3.153371</v>
       </c>
       <c r="O2">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183783</v>
       </c>
       <c r="P2">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183785</v>
       </c>
       <c r="Q2">
-        <v>0.4933758204032234</v>
+        <v>0.08171155085022222</v>
       </c>
       <c r="R2">
-        <v>0.4933758204032234</v>
+        <v>0.735403957652</v>
       </c>
       <c r="S2">
-        <v>0.05150001559583656</v>
+        <v>0.005695336160579437</v>
       </c>
       <c r="T2">
-        <v>0.05150001559583656</v>
+        <v>0.005695336160579438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.797865407244611</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H3">
-        <v>0.797865407244611</v>
+        <v>0.233212</v>
       </c>
       <c r="I3">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J3">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.73985983324315</v>
+        <v>0.7584673333333334</v>
       </c>
       <c r="N3">
-        <v>0.73985983324315</v>
+        <v>2.275402</v>
       </c>
       <c r="O3">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="P3">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="Q3">
-        <v>0.5903085671544758</v>
+        <v>0.05896122791377779</v>
       </c>
       <c r="R3">
-        <v>0.5903085671544758</v>
+        <v>0.530651051224</v>
       </c>
       <c r="S3">
-        <v>0.0616181400822715</v>
+        <v>0.004109627218127766</v>
       </c>
       <c r="T3">
-        <v>0.0616181400822715</v>
+        <v>0.004109627218127767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,421 +664,1351 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.797865407244611</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H4">
-        <v>0.797865407244611</v>
+        <v>0.233212</v>
       </c>
       <c r="I4">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J4">
-        <v>0.144635468083028</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.378433907109855</v>
+        <v>0.218654</v>
       </c>
       <c r="N4">
-        <v>0.378433907109855</v>
+        <v>0.6559619999999999</v>
       </c>
       <c r="O4">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061286</v>
       </c>
       <c r="P4">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061287</v>
       </c>
       <c r="Q4">
-        <v>0.3019393234113737</v>
+        <v>0.01699757888266667</v>
       </c>
       <c r="R4">
-        <v>0.3019393234113737</v>
+        <v>0.152978209944</v>
       </c>
       <c r="S4">
-        <v>0.03151731240491999</v>
+        <v>0.001184739790708422</v>
       </c>
       <c r="T4">
-        <v>0.03151731240491999</v>
+        <v>0.001184739790708422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.63255032452135</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H5">
-        <v>1.63255032452135</v>
+        <v>0.233212</v>
       </c>
       <c r="I5">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J5">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.618369734949498</v>
+        <v>0.3815196666666667</v>
       </c>
       <c r="N5">
-        <v>0.618369734949498</v>
+        <v>1.144559</v>
       </c>
       <c r="O5">
-        <v>0.3560676802060264</v>
+        <v>0.1517430325431922</v>
       </c>
       <c r="P5">
-        <v>0.3560676802060264</v>
+        <v>0.1517430325431922</v>
       </c>
       <c r="Q5">
-        <v>1.009519711465984</v>
+        <v>0.02965832150088889</v>
       </c>
       <c r="R5">
-        <v>1.009519711465984</v>
+        <v>0.266924893508</v>
       </c>
       <c r="S5">
-        <v>0.1053766292039044</v>
+        <v>0.002067199914192349</v>
       </c>
       <c r="T5">
-        <v>0.1053766292039044</v>
+        <v>0.002067199914192349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.63255032452135</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H6">
-        <v>1.63255032452135</v>
+        <v>0.233212</v>
       </c>
       <c r="I6">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J6">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.73985983324315</v>
+        <v>0.064611</v>
       </c>
       <c r="N6">
-        <v>0.73985983324315</v>
+        <v>0.193833</v>
       </c>
       <c r="O6">
-        <v>0.4260237194855938</v>
+        <v>0.02569793888034131</v>
       </c>
       <c r="P6">
-        <v>0.4260237194855938</v>
+        <v>0.02569793888034131</v>
       </c>
       <c r="Q6">
-        <v>1.207858410861416</v>
+        <v>0.005022686844</v>
       </c>
       <c r="R6">
-        <v>1.207858410861416</v>
+        <v>0.045204181596</v>
       </c>
       <c r="S6">
-        <v>0.1260798045313347</v>
+        <v>0.0003500837973120176</v>
       </c>
       <c r="T6">
-        <v>0.1260798045313347</v>
+        <v>0.0003500837973120176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.63255032452135</v>
+        <v>0.07773733333333334</v>
       </c>
       <c r="H7">
-        <v>1.63255032452135</v>
+        <v>0.233212</v>
       </c>
       <c r="I7">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="J7">
-        <v>0.2959455043572948</v>
+        <v>0.01362303019483903</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.378433907109855</v>
+        <v>0.03987266666666667</v>
       </c>
       <c r="N7">
-        <v>0.378433907109855</v>
+        <v>0.119618</v>
       </c>
       <c r="O7">
-        <v>0.2179086003083798</v>
+        <v>0.0158586827474613</v>
       </c>
       <c r="P7">
-        <v>0.2179086003083798</v>
+        <v>0.0158586827474613</v>
       </c>
       <c r="Q7">
-        <v>0.6178123978620761</v>
+        <v>0.003099594779555556</v>
       </c>
       <c r="R7">
-        <v>0.6178123978620761</v>
+        <v>0.027896353016</v>
       </c>
       <c r="S7">
-        <v>0.06448907062205562</v>
+        <v>0.0002160433139190381</v>
       </c>
       <c r="T7">
-        <v>0.06448907062205562</v>
+        <v>0.0002160433139190381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.08597259137063</v>
+        <v>0.81785</v>
       </c>
       <c r="H8">
-        <v>3.08597259137063</v>
+        <v>2.45355</v>
       </c>
       <c r="I8">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="J8">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.618369734949498</v>
+        <v>1.051123666666667</v>
       </c>
       <c r="N8">
-        <v>0.618369734949498</v>
+        <v>3.153371</v>
       </c>
       <c r="O8">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183783</v>
       </c>
       <c r="P8">
-        <v>0.3560676802060264</v>
+        <v>0.4180667648183785</v>
       </c>
       <c r="Q8">
-        <v>1.908272053387272</v>
+        <v>0.8596614907833332</v>
       </c>
       <c r="R8">
-        <v>1.908272053387272</v>
+        <v>7.73695341705</v>
       </c>
       <c r="S8">
-        <v>0.1991910354062854</v>
+        <v>0.05991883795340581</v>
       </c>
       <c r="T8">
-        <v>0.1991910354062854</v>
+        <v>0.05991883795340582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.08597259137063</v>
+        <v>0.81785</v>
       </c>
       <c r="H9">
-        <v>3.08597259137063</v>
+        <v>2.45355</v>
       </c>
       <c r="I9">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="J9">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.73985983324315</v>
+        <v>0.7584673333333334</v>
       </c>
       <c r="N9">
-        <v>0.73985983324315</v>
+        <v>2.275402</v>
       </c>
       <c r="O9">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="P9">
-        <v>0.4260237194855938</v>
+        <v>0.3016676289600139</v>
       </c>
       <c r="Q9">
-        <v>2.283187166844406</v>
+        <v>0.6203125085666666</v>
       </c>
       <c r="R9">
-        <v>2.283187166844406</v>
+        <v>5.5828125771</v>
       </c>
       <c r="S9">
-        <v>0.2383257748719876</v>
+        <v>0.04323609360169022</v>
       </c>
       <c r="T9">
-        <v>0.2383257748719876</v>
+        <v>0.04323609360169022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.08597259137063</v>
+        <v>0.81785</v>
       </c>
       <c r="H10">
-        <v>3.08597259137063</v>
+        <v>2.45355</v>
       </c>
       <c r="I10">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="J10">
-        <v>0.5594190275596773</v>
+        <v>0.1433236099966867</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.378433907109855</v>
+        <v>0.218654</v>
       </c>
       <c r="N10">
-        <v>0.378433907109855</v>
+        <v>0.6559619999999999</v>
       </c>
       <c r="O10">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061286</v>
       </c>
       <c r="P10">
-        <v>0.2179086003083798</v>
+        <v>0.08696595205061287</v>
       </c>
       <c r="Q10">
-        <v>1.167836664986311</v>
+        <v>0.1788261739</v>
       </c>
       <c r="R10">
-        <v>1.167836664986311</v>
+        <v>1.6094355651</v>
       </c>
       <c r="S10">
-        <v>0.1219022172814042</v>
+        <v>0.0124642741946926</v>
       </c>
       <c r="T10">
-        <v>0.1219022172814042</v>
+        <v>0.01246427419469259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.81785</v>
+      </c>
+      <c r="H11">
+        <v>2.45355</v>
+      </c>
+      <c r="I11">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="J11">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3815196666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.144559</v>
+      </c>
+      <c r="O11">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="P11">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="Q11">
+        <v>0.3120258593833333</v>
+      </c>
+      <c r="R11">
+        <v>2.80823273445</v>
+      </c>
+      <c r="S11">
+        <v>0.02174835921593501</v>
+      </c>
+      <c r="T11">
+        <v>0.02174835921593501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.81785</v>
+      </c>
+      <c r="H12">
+        <v>2.45355</v>
+      </c>
+      <c r="I12">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="J12">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.064611</v>
+      </c>
+      <c r="N12">
+        <v>0.193833</v>
+      </c>
+      <c r="O12">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="P12">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="Q12">
+        <v>0.05284210635</v>
+      </c>
+      <c r="R12">
+        <v>0.47557895715</v>
+      </c>
+      <c r="S12">
+        <v>0.00368312136980473</v>
+      </c>
+      <c r="T12">
+        <v>0.00368312136980473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.81785</v>
+      </c>
+      <c r="H13">
+        <v>2.45355</v>
+      </c>
+      <c r="I13">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="J13">
+        <v>0.1433236099966867</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03987266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.119618</v>
+      </c>
+      <c r="O13">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="P13">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="Q13">
+        <v>0.03260986043333333</v>
+      </c>
+      <c r="R13">
+        <v>0.2934887439</v>
+      </c>
+      <c r="S13">
+        <v>0.002272923661158328</v>
+      </c>
+      <c r="T13">
+        <v>0.002272923661158328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.048731</v>
+      </c>
+      <c r="I14">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J14">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.051123666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.153371</v>
+      </c>
+      <c r="O14">
+        <v>0.4180667648183783</v>
+      </c>
+      <c r="P14">
+        <v>0.4180667648183785</v>
+      </c>
+      <c r="Q14">
+        <v>1.768946880244555</v>
+      </c>
+      <c r="R14">
+        <v>15.920521922201</v>
+      </c>
+      <c r="S14">
+        <v>0.1232964865844741</v>
+      </c>
+      <c r="T14">
+        <v>0.1232964865844741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.048731</v>
+      </c>
+      <c r="I15">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J15">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7584673333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.275402</v>
+      </c>
+      <c r="O15">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="P15">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="Q15">
+        <v>1.276432512762445</v>
+      </c>
+      <c r="R15">
+        <v>11.487892614862</v>
+      </c>
+      <c r="S15">
+        <v>0.08896798764474133</v>
+      </c>
+      <c r="T15">
+        <v>0.08896798764474133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.048731</v>
+      </c>
+      <c r="I16">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J16">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.218654</v>
+      </c>
+      <c r="N16">
+        <v>0.6559619999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.08696595205061286</v>
+      </c>
+      <c r="P16">
+        <v>0.08696595205061287</v>
+      </c>
+      <c r="Q16">
+        <v>0.3679750760246666</v>
+      </c>
+      <c r="R16">
+        <v>3.311775684222</v>
+      </c>
+      <c r="S16">
+        <v>0.02564804773460681</v>
+      </c>
+      <c r="T16">
+        <v>0.02564804773460681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.048731</v>
+      </c>
+      <c r="I17">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J17">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3815196666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.144559</v>
+      </c>
+      <c r="O17">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="P17">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="Q17">
+        <v>0.6420633894032223</v>
+      </c>
+      <c r="R17">
+        <v>5.778570504629001</v>
+      </c>
+      <c r="S17">
+        <v>0.04475214092748336</v>
+      </c>
+      <c r="T17">
+        <v>0.04475214092748336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.048731</v>
+      </c>
+      <c r="I18">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J18">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.064611</v>
+      </c>
+      <c r="N18">
+        <v>0.193833</v>
+      </c>
+      <c r="O18">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="P18">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="Q18">
+        <v>0.108734519547</v>
+      </c>
+      <c r="R18">
+        <v>0.978610675923</v>
+      </c>
+      <c r="S18">
+        <v>0.007578850659858411</v>
+      </c>
+      <c r="T18">
+        <v>0.007578850659858411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.682910333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.048731</v>
+      </c>
+      <c r="I19">
+        <v>0.2949205652308623</v>
+      </c>
+      <c r="J19">
+        <v>0.2949205652308622</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03987266666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.119618</v>
+      </c>
+      <c r="O19">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="P19">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="Q19">
+        <v>0.06710212275088889</v>
+      </c>
+      <c r="R19">
+        <v>0.603919104758</v>
+      </c>
+      <c r="S19">
+        <v>0.004677051679698211</v>
+      </c>
+      <c r="T19">
+        <v>0.004677051679698211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H20">
+        <v>9.383459</v>
+      </c>
+      <c r="I20">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J20">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.051123666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.153371</v>
+      </c>
+      <c r="O20">
+        <v>0.4180667648183783</v>
+      </c>
+      <c r="P20">
+        <v>0.4180667648183785</v>
+      </c>
+      <c r="Q20">
+        <v>3.287725276698778</v>
+      </c>
+      <c r="R20">
+        <v>29.589527490289</v>
+      </c>
+      <c r="S20">
+        <v>0.229156104119919</v>
+      </c>
+      <c r="T20">
+        <v>0.2291561041199191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H21">
+        <v>9.383459</v>
+      </c>
+      <c r="I21">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J21">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7584673333333334</v>
+      </c>
+      <c r="N21">
+        <v>2.275402</v>
+      </c>
+      <c r="O21">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="P21">
+        <v>0.3016676289600139</v>
+      </c>
+      <c r="Q21">
+        <v>2.372349041724223</v>
+      </c>
+      <c r="R21">
+        <v>21.351141375518</v>
+      </c>
+      <c r="S21">
+        <v>0.1653539204954546</v>
+      </c>
+      <c r="T21">
+        <v>0.1653539204954546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H22">
+        <v>9.383459</v>
+      </c>
+      <c r="I22">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J22">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.218654</v>
+      </c>
+      <c r="N22">
+        <v>0.6559619999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08696595205061286</v>
+      </c>
+      <c r="P22">
+        <v>0.08696595205061287</v>
+      </c>
+      <c r="Q22">
+        <v>0.6839102813953334</v>
+      </c>
+      <c r="R22">
+        <v>6.155192532558</v>
+      </c>
+      <c r="S22">
+        <v>0.04766889033060504</v>
+      </c>
+      <c r="T22">
+        <v>0.04766889033060504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.383459</v>
+      </c>
+      <c r="I23">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J23">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3815196666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.144559</v>
+      </c>
+      <c r="O23">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="P23">
+        <v>0.1517430325431922</v>
+      </c>
+      <c r="Q23">
+        <v>1.193324716620111</v>
+      </c>
+      <c r="R23">
+        <v>10.739922449581</v>
+      </c>
+      <c r="S23">
+        <v>0.08317533248558145</v>
+      </c>
+      <c r="T23">
+        <v>0.08317533248558145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H24">
+        <v>9.383459</v>
+      </c>
+      <c r="I24">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J24">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.064611</v>
+      </c>
+      <c r="N24">
+        <v>0.193833</v>
+      </c>
+      <c r="O24">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="P24">
+        <v>0.02569793888034131</v>
+      </c>
+      <c r="Q24">
+        <v>0.202091556483</v>
+      </c>
+      <c r="R24">
+        <v>1.818824008347</v>
+      </c>
+      <c r="S24">
+        <v>0.01408588305336615</v>
+      </c>
+      <c r="T24">
+        <v>0.01408588305336615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.127819666666667</v>
+      </c>
+      <c r="H25">
+        <v>9.383459</v>
+      </c>
+      <c r="I25">
+        <v>0.5481327945776121</v>
+      </c>
+      <c r="J25">
+        <v>0.548132794577612</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03987266666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.119618</v>
+      </c>
+      <c r="O25">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="P25">
+        <v>0.0158586827474613</v>
+      </c>
+      <c r="Q25">
+        <v>0.1247145109624445</v>
+      </c>
+      <c r="R25">
+        <v>1.122430598662</v>
+      </c>
+      <c r="S25">
+        <v>0.008692664092685726</v>
+      </c>
+      <c r="T25">
+        <v>0.008692664092685726</v>
       </c>
     </row>
   </sheetData>
